--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -869,7 +869,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1834,9 +1834,6 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>Adam Ryczkowski</author>
   </authors>
   <commentList>
     <comment ref="I6" authorId="0">
@@ -45,6 +46,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="R15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>groupvar: NULL</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -241,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -273,13 +288,26 @@
       <name val="Liberation Sans1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -314,6 +342,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -869,7 +898,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1684,7 +1713,7 @@
       <c r="Q15">
         <v>1</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="13">
         <v>1</v>
       </c>
       <c r="S15">

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>filtr:</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>b_type</t>
-  </si>
-  <si>
-    <t>prefix2: martwe urodzenie</t>
   </si>
   <si>
     <t>prefix2: Płeć noworodka</t>
@@ -250,6 +247,84 @@
 period_unit: year
 period_value: 1
 include_smoothed_periodogram: 1</t>
+  </si>
+  <si>
+    <t>prefix3: Udział liczby urodzeń żywych</t>
+  </si>
+  <si>
+    <t>prefix3: Płeć dziecka</t>
+  </si>
+  <si>
+    <t>prefix3: Początkowe obywatelstwo matki</t>
+  </si>
+  <si>
+    <t>prefix3: Liczba płodów, wielopłodowość</t>
+  </si>
+  <si>
+    <t>prefix3: Kolejność urodzenia w ciąży mnogiej</t>
+  </si>
+  <si>
+    <t>prefix3: Obecność trisomii 21 chromosomu</t>
+  </si>
+  <si>
+    <t>prefix3: Masa urodzeniowa, Klasyfikacja masy ciała noworodka, Dymorfizm płciowy masy ciała, Przynależność do kategorii SGA; Przynależność do kategorii LGA</t>
+  </si>
+  <si>
+    <t>prefix3: Ukończone tygodnie ciąży, Uproszczony czas trwania ciąży</t>
+  </si>
+  <si>
+    <t>prefix3: Wiek matki w chwili porodu</t>
+  </si>
+  <si>
+    <t>prefix3: Wiek ojca w chwili urodzin</t>
+  </si>
+  <si>
+    <t>prefix3: O ile lat ojciec starszy od matki</t>
+  </si>
+  <si>
+    <t>prefix3: Liczba ciąż matki, zakonczonych urodzeniem żywego dziecka, uproszczona</t>
+  </si>
+  <si>
+    <t>prefix3:  Obecność przynajmniej jednego czynnika ryzyka u matki</t>
+  </si>
+  <si>
+    <t>prefix3: Obecność niedokrwistości u matki</t>
+  </si>
+  <si>
+    <t>prefix3: Obecność cukrzycy u matki</t>
+  </si>
+  <si>
+    <t>prefix3: Obecność cukrzycy ciężarnych u matki</t>
+  </si>
+  <si>
+    <t>prefix3: Obecność przewlekłego nadciśnienia tętniczego u matki</t>
+  </si>
+  <si>
+    <t>prefix3: Obecność nadciśnienia tętniczego indukowanego ciążą u matki</t>
+  </si>
+  <si>
+    <t>prefix3: Palenie przez matkę tytoniu w czasie ciąży</t>
+  </si>
+  <si>
+    <t>prefix3: Spożywanie przez matkę alkoholu w czasie ciąży</t>
+  </si>
+  <si>
+    <t>prefix3: Miesiąc urodzenia matki</t>
+  </si>
+  <si>
+    <t>prefix3: Miesiąc urodzenia dziecka</t>
+  </si>
+  <si>
+    <t>prefix3: Kategoria administracyjna miejsca zamieszkania matki podczas ciąży</t>
+  </si>
+  <si>
+    <t>prefix3: Uproszczona liczba punktów Apgar w 1 minucie życia</t>
+  </si>
+  <si>
+    <t>prefix3: Rodzaj porodu</t>
+  </si>
+  <si>
+    <t>prefix2: Martwe urodzenie</t>
   </si>
 </sst>
 </file>
@@ -898,7 +973,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -939,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -969,8 +1044,87 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="57.75">
       <c r="A5" t="s">
@@ -989,10 +1143,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>8</v>
@@ -1013,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s">
         <v>11</v>
@@ -1069,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
@@ -1153,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1168,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -1255,10 +1409,10 @@
     </row>
     <row r="9" spans="1:31">
       <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1317,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>8</v>
@@ -1378,7 +1532,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>16</v>
@@ -1462,7 +1616,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>12</v>
@@ -1543,7 +1697,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="C13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>10</v>
@@ -1624,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>10</v>
@@ -1673,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>38</v>
@@ -1758,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>38</v>
@@ -1842,7 +1996,7 @@
     </row>
     <row r="17" spans="2:31">
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>41</v>
@@ -1917,10 +2071,10 @@
     </row>
     <row r="18" spans="2:31">
       <c r="C18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -1998,7 +2152,7 @@
     </row>
     <row r="19" spans="2:31">
       <c r="C19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
@@ -2082,7 +2236,7 @@
     </row>
     <row r="20" spans="2:31">
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>31</v>
@@ -2160,7 +2314,7 @@
     </row>
     <row r="21" spans="2:31">
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>32</v>
@@ -2250,10 +2404,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -507,7 +507,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>423855</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -555,7 +555,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>249255</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -972,9 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -985,7 +983,8 @@
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="12" width="9.125" customWidth="1"/>
     <col min="13" max="13" width="9.375" customWidth="1"/>
-    <col min="14" max="19" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="19" width="9.125" customWidth="1"/>
     <col min="20" max="20" width="9.375" customWidth="1"/>
     <col min="21" max="22" width="9.125" customWidth="1"/>
     <col min="23" max="24" width="9.375" customWidth="1"/>
@@ -1126,7 +1125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="57.75">
+    <row r="5" spans="1:31" ht="29.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -65,10 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
-  <si>
-    <t>filtr:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>filtr_dzieci_zywe</t>
   </si>
@@ -996,236 +993,236 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="71.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="AA4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AD4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AE4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="29.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="AB5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>14</v>
-      </c>
       <c r="AE5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6">
@@ -1303,13 +1300,13 @@
     </row>
     <row r="7" spans="1:31">
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1318,13 +1315,13 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1408,10 +1405,10 @@
     </row>
     <row r="9" spans="1:31">
       <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1467,13 +1464,13 @@
     </row>
     <row r="10" spans="1:31" s="7" customFormat="1">
       <c r="B10" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -1531,10 +1528,10 @@
     </row>
     <row r="11" spans="1:31">
       <c r="C11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
@@ -1615,10 +1612,10 @@
     </row>
     <row r="12" spans="1:31">
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -1696,10 +1693,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -1774,13 +1771,13 @@
     </row>
     <row r="14" spans="1:31">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -1823,13 +1820,13 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
@@ -1908,13 +1905,13 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
@@ -1995,10 +1992,10 @@
     </row>
     <row r="17" spans="2:31">
       <c r="C17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -2070,10 +2067,10 @@
     </row>
     <row r="18" spans="2:31">
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -2151,10 +2148,10 @@
     </row>
     <row r="19" spans="2:31">
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -2235,10 +2232,10 @@
     </row>
     <row r="20" spans="2:31">
       <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -2313,10 +2310,10 @@
     </row>
     <row r="21" spans="2:31">
       <c r="C21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
@@ -2400,13 +2397,13 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Podstawowe" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <t>preg_weight_gr</t>
   </si>
   <si>
-    <t>preg_weeks;
-preg_weeks_gr</t>
-  </si>
-  <si>
     <t>apgar1_gr</t>
   </si>
   <si>
@@ -323,11 +319,15 @@
   <si>
     <t>prefix2: Martwe urodzenie</t>
   </si>
+  <si>
+    <t>preg_weeks;
+preg_weeks_gr; preg_weeks_gr2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -489,6 +489,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -504,7 +509,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>423855</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -552,7 +557,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>249255</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -757,6 +762,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -791,6 +797,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -966,43 +973,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
-    <col min="15" max="19" width="9.125" customWidth="1"/>
-    <col min="20" max="20" width="9.375" customWidth="1"/>
-    <col min="21" max="22" width="9.125" customWidth="1"/>
-    <col min="23" max="24" width="9.375" customWidth="1"/>
-    <col min="25" max="25" width="9.125" customWidth="1"/>
-    <col min="26" max="26" width="9.375" customWidth="1"/>
-    <col min="27" max="31" width="9.125" customWidth="1"/>
-    <col min="43" max="1036" width="9.375" customWidth="1"/>
+    <col min="1" max="2" width="9.09765625" customWidth="1"/>
+    <col min="3" max="3" width="29.69921875" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="12" width="9.09765625" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" customWidth="1"/>
+    <col min="15" max="19" width="9.09765625" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" customWidth="1"/>
+    <col min="21" max="22" width="9.09765625" customWidth="1"/>
+    <col min="23" max="24" width="9.3984375" customWidth="1"/>
+    <col min="25" max="25" width="9.09765625" customWidth="1"/>
+    <col min="26" max="26" width="9.3984375" customWidth="1"/>
+    <col min="27" max="31" width="9.09765625" customWidth="1"/>
+    <col min="43" max="1036" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
       <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="71.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="69">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1010,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1024,7 +1033,7 @@
     </row>
     <row r="3" spans="1:31">
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1038,96 +1047,96 @@
     </row>
     <row r="4" spans="1:31">
       <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="42">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="29.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1139,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>9</v>
@@ -1157,61 +1166,61 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P5" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="AA5" t="s">
         <v>6</v>
       </c>
       <c r="AB5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" t="s">
         <v>17</v>
       </c>
-      <c r="AC5" t="s">
-        <v>18</v>
-      </c>
       <c r="AD5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1219,10 +1228,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6">
@@ -1303,10 +1312,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1315,13 +1324,13 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1405,17 +1414,32 @@
     </row>
     <row r="9" spans="1:31">
       <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
       <c r="M9">
         <v>1</v>
       </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
       <c r="O9">
         <v>1</v>
       </c>
@@ -1459,6 +1483,12 @@
         <v>1</v>
       </c>
       <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
         <v>1</v>
       </c>
     </row>
@@ -1467,12 +1497,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="7">
         <v>1</v>
@@ -1528,10 +1560,10 @@
     </row>
     <row r="11" spans="1:31">
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
@@ -1612,7 +1644,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>11</v>
@@ -1693,7 +1725,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -1771,10 +1803,10 @@
     </row>
     <row r="14" spans="1:31">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
@@ -1820,13 +1852,13 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
@@ -1905,13 +1937,13 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
@@ -1992,10 +2024,10 @@
     </row>
     <row r="17" spans="2:31">
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -2067,10 +2099,10 @@
     </row>
     <row r="18" spans="2:31">
       <c r="C18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -2148,10 +2180,10 @@
     </row>
     <row r="19" spans="2:31">
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -2232,10 +2264,10 @@
     </row>
     <row r="20" spans="2:31">
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -2307,13 +2339,19 @@
       <c r="AC20">
         <v>1</v>
       </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:31">
       <c r="C21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="9">
         <v>1</v>
@@ -2397,13 +2435,13 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Podstawowe" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>filtr_dzieci_zywe</t>
   </si>
@@ -323,11 +323,20 @@
     <t>preg_weeks;
 preg_weeks_gr; preg_weeks_gr2</t>
   </si>
+  <si>
+    <t>prefix2: Śmierć vs płeć</t>
+  </si>
+  <si>
+    <t>prefix3: Udział urodzeń chłopców</t>
+  </si>
+  <si>
+    <t>prefix3: Udział urodzeń martwych</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -762,7 +771,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -797,7 +805,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -973,34 +980,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="3" width="29.69921875" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" customWidth="1"/>
-    <col min="7" max="12" width="9.09765625" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" customWidth="1"/>
-    <col min="14" max="14" width="16.8984375" customWidth="1"/>
-    <col min="15" max="19" width="9.09765625" customWidth="1"/>
-    <col min="20" max="20" width="9.3984375" customWidth="1"/>
-    <col min="21" max="22" width="9.09765625" customWidth="1"/>
-    <col min="23" max="24" width="9.3984375" customWidth="1"/>
-    <col min="25" max="25" width="9.09765625" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" customWidth="1"/>
-    <col min="27" max="31" width="9.09765625" customWidth="1"/>
-    <col min="43" max="1036" width="9.3984375" customWidth="1"/>
+    <col min="1" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="12" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="19" width="9.125" customWidth="1"/>
+    <col min="20" max="20" width="9.375" customWidth="1"/>
+    <col min="21" max="22" width="9.125" customWidth="1"/>
+    <col min="23" max="24" width="9.375" customWidth="1"/>
+    <col min="25" max="25" width="9.125" customWidth="1"/>
+    <col min="26" max="26" width="9.375" customWidth="1"/>
+    <col min="27" max="31" width="9.125" customWidth="1"/>
+    <col min="43" max="1036" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1011,7 +1018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="69">
+    <row r="2" spans="1:34" ht="71.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1037,14 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:34">
       <c r="D4" t="s">
         <v>33</v>
       </c>
@@ -1130,8 +1143,17 @@
       <c r="AE4" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="42">
+      <c r="AF4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="43.5">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1222,8 +1244,17 @@
       <c r="AE5" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:34">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1321,8 +1352,11 @@
         <v>1</v>
       </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:34">
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1492,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="7" customFormat="1">
+    <row r="10" spans="1:34" s="7" customFormat="1">
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:34">
       <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1642,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:34">
       <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1723,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:34">
       <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
@@ -1801,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:34">
       <c r="B14" t="s">
         <v>28</v>
       </c>
@@ -1850,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:34">
       <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
@@ -2097,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:34">
       <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:34">
       <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
@@ -2262,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="2:34">
       <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2346,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:34">
       <c r="C21" s="7" t="s">
         <v>50</v>
       </c>
@@ -2433,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="2:34">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -2447,9 +2481,6 @@
         <v>1</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22">
-        <v>1</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
@@ -2462,108 +2493,66 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
       <c r="AD22">
         <v>1</v>
       </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:31">
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="2:34">
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="2:34">
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:31">
+    <row r="26" spans="2:34">
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:31">
+    <row r="27" spans="2:34">
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:31">
+    <row r="28" spans="2:34">
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="2:34">
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:31">
+    <row r="30" spans="2:34">
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:34">
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="2:34">
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>

--- a/inst/macierze_analiz.xlsx
+++ b/inst/macierze_analiz.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>filtr_dzieci_zywe</t>
   </si>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1040,6 +1040,9 @@
       <c r="AF2" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="AG2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="AH2" s="7" t="s">
         <v>26</v>
       </c>
@@ -1056,6 +1059,10 @@
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="AF3" s="7"/>
+      <c r="AH3" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:34">
